--- a/CASUAL/LA ONT/BUTALON, DIANNE HERNANDO.xlsx
+++ b/CASUAL/LA ONT/BUTALON, DIANNE HERNANDO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>12/7,8,11/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2/23,26,27,28,29/2024</t>
   </si>
 </sst>
 </file>
@@ -935,7 +941,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -978,7 +984,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,7 +1048,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1108,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,7 +1174,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1231,7 +1237,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,7 +1335,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1394,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1459,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1502,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1577,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1763,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1829,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1887,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1953,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2009,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,7 +2084,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2127,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2193,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2249,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2345,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2686,12 +2692,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2856,7 +2862,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.5</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2866,7 +2872,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>42.5</v>
+        <v>45</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3800,13 +3806,15 @@
       <c r="B53" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
@@ -3820,13 +3828,15 @@
         <v>45291</v>
       </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -3834,8 +3844,8 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>45322</v>
+      <c r="A55" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -3853,11 +3863,15 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B56" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>5</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -3867,11 +3881,13 @@
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
+      <c r="K56" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -3889,7 +3905,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3907,7 +3923,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3925,7 +3941,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3943,7 +3959,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3961,7 +3977,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -3979,7 +3995,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -3997,7 +4013,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4015,7 +4031,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4033,7 +4049,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4051,7 +4067,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4069,7 +4085,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4087,7 +4103,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4105,7 +4121,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4123,7 +4139,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4141,7 +4157,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4159,7 +4175,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4177,7 +4193,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4195,7 +4211,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4213,7 +4229,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4231,7 +4247,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4249,7 +4265,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4267,7 +4283,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4285,7 +4301,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4303,7 +4319,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4321,7 +4337,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4339,7 +4355,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4356,7 +4372,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>46173</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5124,20 +5142,36 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
